--- a/admin/database/Data Mobil.xlsx
+++ b/admin/database/Data Mobil.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>NAMA (OWNER)</t>
   </si>
@@ -51,36 +51,6 @@
   </si>
   <si>
     <t>KETERANGAN PROSES</t>
-  </si>
-  <si>
-    <t>Reyhan Bugati</t>
-  </si>
-  <si>
-    <t>081234567890</t>
-  </si>
-  <si>
-    <t>Kepuh</t>
-  </si>
-  <si>
-    <t>Monday, 19-September-2022 2:18 pm</t>
-  </si>
-  <si>
-    <t>Mobil Kodok</t>
-  </si>
-  <si>
-    <t>A 555 AA</t>
-  </si>
-  <si>
-    <t>M123450</t>
-  </si>
-  <si>
-    <t>Dirubah menjadi tank</t>
-  </si>
-  <si>
-    <t>Q6HDW7GZ</t>
-  </si>
-  <si>
-    <t>Baru di daftarkan pada Monday, 19-September-2022 2:18 pm</t>
   </si>
 </sst>
 </file>
@@ -416,7 +386,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,44 +430,6 @@
       </c>
       <c r="L1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2">
-        <v>1234567890</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2">
-        <v>2005</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
